--- a/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASRVEXBOP" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,920 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>AMRSEXBOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Maintenance and Repair Services n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ATRPEXBOP</t>
-  </si>
-  <si>
-    <t>Transport,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ATRVEXBOP</t>
-  </si>
-  <si>
-    <t>Travel,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ACONEXBOP</t>
-  </si>
-  <si>
-    <t>Construction,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AINSEXBOP</t>
-  </si>
-  <si>
-    <t>Insurance Services,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AFINEXBOP</t>
-  </si>
-  <si>
-    <t>Financial Services,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ACUIEXBOP</t>
-  </si>
-  <si>
-    <t>Charges for the Use of Intellectual Property n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>ATCIEXBOP</t>
-  </si>
-  <si>
-    <t>Telecommunications, Computer and Information Services,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AOTBEXBOP</t>
-  </si>
-  <si>
-    <t>Other Business Services,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>APCREXBOP</t>
-  </si>
-  <si>
-    <t>Personal, Cultural and Recreational Services,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AGGSEXBOP</t>
-  </si>
-  <si>
-    <t>Government Goods and Services n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,851 +366,1413 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:280">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>279</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:280">
-      <c r="A2" s="1" t="s">
-        <v>280</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AMRSEXBOP</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>318</v>
@@ -2948,25 +2596,35 @@
       <c r="JO2" t="n">
         <v>1026</v>
       </c>
-      <c r="JP2" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>280</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>282</v>
+      <c r="JP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR2" t="inlineStr">
+        <is>
+          <t>AMRSEXBOP</t>
+        </is>
+      </c>
+      <c r="JS2" t="inlineStr">
+        <is>
+          <t>Maintenance and Repair Services n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT2" t="n">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:280">
-      <c r="A3" s="1" t="s">
-        <v>283</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ATRPEXBOP</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>3450</v>
@@ -3790,25 +3448,35 @@
       <c r="JO3" t="n">
         <v>5338</v>
       </c>
-      <c r="JP3" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ3" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR3" t="s">
-        <v>283</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>284</v>
+      <c r="JP3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR3" t="inlineStr">
+        <is>
+          <t>ATRPEXBOP</t>
+        </is>
+      </c>
+      <c r="JS3" t="inlineStr">
+        <is>
+          <t>Transport,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT3" t="n">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:280">
-      <c r="A4" s="1" t="s">
-        <v>285</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ATRVEXBOP</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>7386</v>
@@ -4632,25 +4300,35 @@
       <c r="JO4" t="n">
         <v>5834</v>
       </c>
-      <c r="JP4" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ4" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR4" t="s">
-        <v>285</v>
-      </c>
-      <c r="JS4" t="s">
-        <v>286</v>
+      <c r="JP4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR4" t="inlineStr">
+        <is>
+          <t>ATRVEXBOP</t>
+        </is>
+      </c>
+      <c r="JS4" t="inlineStr">
+        <is>
+          <t>Travel,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT4" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:280">
-      <c r="A5" s="1" t="s">
-        <v>287</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ACONEXBOP</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>312</v>
@@ -5474,25 +5152,35 @@
       <c r="JO5" t="n">
         <v>284</v>
       </c>
-      <c r="JP5" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ5" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR5" t="s">
-        <v>287</v>
-      </c>
-      <c r="JS5" t="s">
-        <v>288</v>
+      <c r="JP5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR5" t="inlineStr">
+        <is>
+          <t>ACONEXBOP</t>
+        </is>
+      </c>
+      <c r="JS5" t="inlineStr">
+        <is>
+          <t>Construction,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT5" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:280">
-      <c r="A6" s="1" t="s">
-        <v>289</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AINSEXBOP</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>260</v>
@@ -6316,25 +6004,35 @@
       <c r="JO6" t="n">
         <v>1857</v>
       </c>
-      <c r="JP6" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ6" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR6" t="s">
-        <v>289</v>
-      </c>
-      <c r="JS6" t="s">
-        <v>290</v>
+      <c r="JP6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR6" t="inlineStr">
+        <is>
+          <t>AINSEXBOP</t>
+        </is>
+      </c>
+      <c r="JS6" t="inlineStr">
+        <is>
+          <t>Insurance Services,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT6" t="n">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:280">
-      <c r="A7" s="1" t="s">
-        <v>291</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AFINEXBOP</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1406</v>
@@ -7158,25 +6856,35 @@
       <c r="JO7" t="n">
         <v>13612</v>
       </c>
-      <c r="JP7" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ7" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR7" t="s">
-        <v>291</v>
-      </c>
-      <c r="JS7" t="s">
-        <v>292</v>
+      <c r="JP7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR7" t="inlineStr">
+        <is>
+          <t>AFINEXBOP</t>
+        </is>
+      </c>
+      <c r="JS7" t="inlineStr">
+        <is>
+          <t>Financial Services,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT7" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:280">
-      <c r="A8" s="1" t="s">
-        <v>293</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ACUIEXBOP</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>3833</v>
@@ -8000,25 +7708,35 @@
       <c r="JO8" t="n">
         <v>9851</v>
       </c>
-      <c r="JP8" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ8" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR8" t="s">
-        <v>293</v>
-      </c>
-      <c r="JS8" t="s">
-        <v>294</v>
+      <c r="JP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR8" t="inlineStr">
+        <is>
+          <t>ACUIEXBOP</t>
+        </is>
+      </c>
+      <c r="JS8" t="inlineStr">
+        <is>
+          <t>Charges for the Use of Intellectual Property n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT8" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:280">
-      <c r="A9" s="1" t="s">
-        <v>295</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ATCIEXBOP</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1012</v>
@@ -8842,25 +8560,35 @@
       <c r="JO9" t="n">
         <v>4840</v>
       </c>
-      <c r="JP9" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ9" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR9" t="s">
-        <v>295</v>
-      </c>
-      <c r="JS9" t="s">
-        <v>296</v>
+      <c r="JP9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR9" t="inlineStr">
+        <is>
+          <t>ATCIEXBOP</t>
+        </is>
+      </c>
+      <c r="JS9" t="inlineStr">
+        <is>
+          <t>Telecommunications, Computer and Information Services,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT9" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:280">
-      <c r="A10" s="1" t="s">
-        <v>297</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AOTBEXBOP</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>3457</v>
@@ -9684,25 +9412,35 @@
       <c r="JO10" t="n">
         <v>18380</v>
       </c>
-      <c r="JP10" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ10" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR10" t="s">
-        <v>297</v>
-      </c>
-      <c r="JS10" t="s">
-        <v>298</v>
+      <c r="JP10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR10" t="inlineStr">
+        <is>
+          <t>AOTBEXBOP</t>
+        </is>
+      </c>
+      <c r="JS10" t="inlineStr">
+        <is>
+          <t>Other Business Services,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT10" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:280">
-      <c r="A11" s="1" t="s">
-        <v>299</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>APCREXBOP</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>742</v>
@@ -10526,25 +10264,35 @@
       <c r="JO11" t="n">
         <v>1981</v>
       </c>
-      <c r="JP11" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ11" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR11" t="s">
-        <v>299</v>
-      </c>
-      <c r="JS11" t="s">
-        <v>300</v>
+      <c r="JP11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR11" t="inlineStr">
+        <is>
+          <t>APCREXBOP</t>
+        </is>
+      </c>
+      <c r="JS11" t="inlineStr">
+        <is>
+          <t>Personal, Cultural and Recreational Services,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT11" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:280">
-      <c r="A12" s="1" t="s">
-        <v>301</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AGGSEXBOP</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>614</v>
@@ -11368,17 +11116,25 @@
       <c r="JO12" t="n">
         <v>1904</v>
       </c>
-      <c r="JP12" t="s">
-        <v>281</v>
-      </c>
-      <c r="JQ12" t="s">
-        <v>281</v>
-      </c>
-      <c r="JR12" t="s">
-        <v>301</v>
-      </c>
-      <c r="JS12" t="s">
-        <v>302</v>
+      <c r="JP12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JQ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JR12" t="inlineStr">
+        <is>
+          <t>AGGSEXBOP</t>
+        </is>
+      </c>
+      <c r="JS12" t="inlineStr">
+        <is>
+          <t>Government Goods and Services n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT12" t="n">
         <v>191</v>

--- a/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JT12"/>
+  <dimension ref="A1:KF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,15 +1754,75 @@
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -2567,56 +2627,110 @@
         <v>966</v>
       </c>
       <c r="JF2" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="JG2" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="JH2" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="JI2" t="n">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="JJ2" t="n">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="JK2" t="n">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="JL2" t="n">
-        <v>996</v>
+        <v>1033</v>
       </c>
       <c r="JM2" t="n">
-        <v>982</v>
+        <v>1028</v>
       </c>
       <c r="JN2" t="n">
-        <v>1030</v>
+        <v>1068</v>
       </c>
       <c r="JO2" t="n">
-        <v>1026</v>
-      </c>
-      <c r="JP2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR2" t="inlineStr">
+        <v>1039</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>970</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>985</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>1033</v>
+      </c>
+      <c r="JS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD2" t="inlineStr">
         <is>
           <t>AMRSEXBOP</t>
         </is>
       </c>
-      <c r="JS2" t="inlineStr">
+      <c r="KE2" t="inlineStr">
         <is>
           <t>Maintenance and Repair Services n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT2" t="n">
+      <c r="KF2" t="n">
         <v>181</v>
       </c>
     </row>
@@ -3419,56 +3533,110 @@
         <v>4624</v>
       </c>
       <c r="JF3" t="n">
-        <v>4827</v>
+        <v>4822</v>
       </c>
       <c r="JG3" t="n">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="JH3" t="n">
-        <v>4925</v>
+        <v>4932</v>
       </c>
       <c r="JI3" t="n">
-        <v>5056</v>
+        <v>5048</v>
       </c>
       <c r="JJ3" t="n">
-        <v>5338</v>
+        <v>5333</v>
       </c>
       <c r="JK3" t="n">
-        <v>5504</v>
+        <v>5524</v>
       </c>
       <c r="JL3" t="n">
-        <v>5328</v>
+        <v>5492</v>
       </c>
       <c r="JM3" t="n">
-        <v>5324</v>
+        <v>5575</v>
       </c>
       <c r="JN3" t="n">
-        <v>5283</v>
+        <v>5542</v>
       </c>
       <c r="JO3" t="n">
-        <v>5338</v>
-      </c>
-      <c r="JP3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR3" t="inlineStr">
+        <v>5594</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>6083</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>6511</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>6021</v>
+      </c>
+      <c r="JS3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD3" t="inlineStr">
         <is>
           <t>ATRPEXBOP</t>
         </is>
       </c>
-      <c r="JS3" t="inlineStr">
+      <c r="KE3" t="inlineStr">
         <is>
           <t>Transport,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT3" t="n">
+      <c r="KF3" t="n">
         <v>182</v>
       </c>
     </row>
@@ -4271,56 +4439,110 @@
         <v>4410</v>
       </c>
       <c r="JF4" t="n">
-        <v>4354</v>
+        <v>4367</v>
       </c>
       <c r="JG4" t="n">
-        <v>4262</v>
+        <v>4276</v>
       </c>
       <c r="JH4" t="n">
-        <v>4642</v>
+        <v>4660</v>
       </c>
       <c r="JI4" t="n">
-        <v>4829</v>
+        <v>4848</v>
       </c>
       <c r="JJ4" t="n">
-        <v>5443</v>
+        <v>5467</v>
       </c>
       <c r="JK4" t="n">
-        <v>5755</v>
+        <v>5783</v>
       </c>
       <c r="JL4" t="n">
-        <v>5568</v>
+        <v>5639</v>
       </c>
       <c r="JM4" t="n">
-        <v>5244</v>
+        <v>5312</v>
       </c>
       <c r="JN4" t="n">
-        <v>5478</v>
+        <v>5555</v>
       </c>
       <c r="JO4" t="n">
-        <v>5834</v>
-      </c>
-      <c r="JP4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR4" t="inlineStr">
+        <v>6042</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>8205</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>8604</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>6849</v>
+      </c>
+      <c r="JS4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD4" t="inlineStr">
         <is>
           <t>ATRVEXBOP</t>
         </is>
       </c>
-      <c r="JS4" t="inlineStr">
+      <c r="KE4" t="inlineStr">
         <is>
           <t>Travel,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT4" t="n">
+      <c r="KF4" t="n">
         <v>183</v>
       </c>
     </row>
@@ -5141,38 +5363,92 @@
         <v>223</v>
       </c>
       <c r="JL5" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="JM5" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="JN5" t="n">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="JO5" t="n">
-        <v>284</v>
-      </c>
-      <c r="JP5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR5" t="inlineStr">
+        <v>242</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>231</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>233</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>247</v>
+      </c>
+      <c r="JS5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD5" t="inlineStr">
         <is>
           <t>ACONEXBOP</t>
         </is>
       </c>
-      <c r="JS5" t="inlineStr">
+      <c r="KE5" t="inlineStr">
         <is>
           <t>Construction,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT5" t="n">
+      <c r="KF5" t="n">
         <v>184</v>
       </c>
     </row>
@@ -5993,38 +6269,92 @@
         <v>1773</v>
       </c>
       <c r="JL6" t="n">
-        <v>1787</v>
+        <v>1899</v>
       </c>
       <c r="JM6" t="n">
-        <v>1806</v>
+        <v>1985</v>
       </c>
       <c r="JN6" t="n">
-        <v>1829</v>
+        <v>2031</v>
       </c>
       <c r="JO6" t="n">
-        <v>1857</v>
-      </c>
-      <c r="JP6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR6" t="inlineStr">
+        <v>2038</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>2051</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>2069</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>2093</v>
+      </c>
+      <c r="JS6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD6" t="inlineStr">
         <is>
           <t>AINSEXBOP</t>
         </is>
       </c>
-      <c r="JS6" t="inlineStr">
+      <c r="KE6" t="inlineStr">
         <is>
           <t>Insurance Services,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT6" t="n">
+      <c r="KF6" t="n">
         <v>185</v>
       </c>
     </row>
@@ -6827,56 +7157,110 @@
         <v>12850</v>
       </c>
       <c r="JF7" t="n">
-        <v>12962</v>
+        <v>12984</v>
       </c>
       <c r="JG7" t="n">
-        <v>13104</v>
+        <v>13119</v>
       </c>
       <c r="JH7" t="n">
-        <v>13354</v>
+        <v>13332</v>
       </c>
       <c r="JI7" t="n">
-        <v>13348</v>
+        <v>13255</v>
       </c>
       <c r="JJ7" t="n">
-        <v>13474</v>
+        <v>13435</v>
       </c>
       <c r="JK7" t="n">
-        <v>13624</v>
+        <v>13771</v>
       </c>
       <c r="JL7" t="n">
-        <v>13417</v>
+        <v>13800</v>
       </c>
       <c r="JM7" t="n">
-        <v>13420</v>
+        <v>13973</v>
       </c>
       <c r="JN7" t="n">
-        <v>13538</v>
+        <v>14088</v>
       </c>
       <c r="JO7" t="n">
-        <v>13612</v>
-      </c>
-      <c r="JP7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR7" t="inlineStr">
+        <v>13970</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>14103</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>14258</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>14479</v>
+      </c>
+      <c r="JS7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD7" t="inlineStr">
         <is>
           <t>AFINEXBOP</t>
         </is>
       </c>
-      <c r="JS7" t="inlineStr">
+      <c r="KE7" t="inlineStr">
         <is>
           <t>Financial Services,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT7" t="n">
+      <c r="KF7" t="n">
         <v>186</v>
       </c>
     </row>
@@ -7679,56 +8063,110 @@
         <v>10225</v>
       </c>
       <c r="JF8" t="n">
-        <v>10051</v>
+        <v>10026</v>
       </c>
       <c r="JG8" t="n">
-        <v>9992</v>
+        <v>9986</v>
       </c>
       <c r="JH8" t="n">
-        <v>10050</v>
+        <v>10106</v>
       </c>
       <c r="JI8" t="n">
-        <v>10420</v>
+        <v>10385</v>
       </c>
       <c r="JJ8" t="n">
-        <v>10536</v>
+        <v>10511</v>
       </c>
       <c r="JK8" t="n">
-        <v>10398</v>
+        <v>10483</v>
       </c>
       <c r="JL8" t="n">
-        <v>10006</v>
+        <v>10301</v>
       </c>
       <c r="JM8" t="n">
-        <v>9785</v>
+        <v>10266</v>
       </c>
       <c r="JN8" t="n">
-        <v>9733</v>
+        <v>10377</v>
       </c>
       <c r="JO8" t="n">
-        <v>9851</v>
-      </c>
-      <c r="JP8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR8" t="inlineStr">
+        <v>10635</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>10819</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>10930</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>10968</v>
+      </c>
+      <c r="JS8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD8" t="inlineStr">
         <is>
           <t>ACUIEXBOP</t>
         </is>
       </c>
-      <c r="JS8" t="inlineStr">
+      <c r="KE8" t="inlineStr">
         <is>
           <t>Charges for the Use of Intellectual Property n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT8" t="n">
+      <c r="KF8" t="n">
         <v>187</v>
       </c>
     </row>
@@ -8531,56 +8969,110 @@
         <v>5308</v>
       </c>
       <c r="JF9" t="n">
-        <v>5063</v>
+        <v>5013</v>
       </c>
       <c r="JG9" t="n">
-        <v>4880</v>
+        <v>4852</v>
       </c>
       <c r="JH9" t="n">
-        <v>4759</v>
+        <v>4826</v>
       </c>
       <c r="JI9" t="n">
-        <v>4945</v>
+        <v>4956</v>
       </c>
       <c r="JJ9" t="n">
-        <v>5022</v>
+        <v>5008</v>
       </c>
       <c r="JK9" t="n">
-        <v>4989</v>
+        <v>4982</v>
       </c>
       <c r="JL9" t="n">
-        <v>4847</v>
+        <v>4875</v>
       </c>
       <c r="JM9" t="n">
-        <v>4774</v>
+        <v>4796</v>
       </c>
       <c r="JN9" t="n">
-        <v>4772</v>
+        <v>4747</v>
       </c>
       <c r="JO9" t="n">
-        <v>4840</v>
-      </c>
-      <c r="JP9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR9" t="inlineStr">
+        <v>4727</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>4698</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>4662</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>4616</v>
+      </c>
+      <c r="JS9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD9" t="inlineStr">
         <is>
           <t>ATCIEXBOP</t>
         </is>
       </c>
-      <c r="JS9" t="inlineStr">
+      <c r="KE9" t="inlineStr">
         <is>
           <t>Telecommunications, Computer and Information Services,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT9" t="n">
+      <c r="KF9" t="n">
         <v>188</v>
       </c>
     </row>
@@ -9383,56 +9875,110 @@
         <v>15346</v>
       </c>
       <c r="JF10" t="n">
-        <v>16078</v>
+        <v>16039</v>
       </c>
       <c r="JG10" t="n">
-        <v>16562</v>
+        <v>16556</v>
       </c>
       <c r="JH10" t="n">
-        <v>16797</v>
+        <v>16898</v>
       </c>
       <c r="JI10" t="n">
-        <v>16978</v>
+        <v>17065</v>
       </c>
       <c r="JJ10" t="n">
-        <v>17165</v>
+        <v>17198</v>
       </c>
       <c r="JK10" t="n">
-        <v>17358</v>
+        <v>17299</v>
       </c>
       <c r="JL10" t="n">
-        <v>17557</v>
+        <v>17367</v>
       </c>
       <c r="JM10" t="n">
-        <v>17794</v>
+        <v>17433</v>
       </c>
       <c r="JN10" t="n">
-        <v>18068</v>
+        <v>17497</v>
       </c>
       <c r="JO10" t="n">
-        <v>18380</v>
-      </c>
-      <c r="JP10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR10" t="inlineStr">
+        <v>17559</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>17702</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>17926</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>18231</v>
+      </c>
+      <c r="JS10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD10" t="inlineStr">
         <is>
           <t>AOTBEXBOP</t>
         </is>
       </c>
-      <c r="JS10" t="inlineStr">
+      <c r="KE10" t="inlineStr">
         <is>
           <t>Other Business Services,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT10" t="n">
+      <c r="KF10" t="n">
         <v>189</v>
       </c>
     </row>
@@ -10235,56 +10781,110 @@
         <v>1910</v>
       </c>
       <c r="JF11" t="n">
-        <v>1815</v>
+        <v>1828</v>
       </c>
       <c r="JG11" t="n">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="JH11" t="n">
-        <v>1867</v>
+        <v>1841</v>
       </c>
       <c r="JI11" t="n">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="JJ11" t="n">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="JK11" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="JL11" t="n">
-        <v>1977</v>
+        <v>1929</v>
       </c>
       <c r="JM11" t="n">
-        <v>1966</v>
+        <v>1900</v>
       </c>
       <c r="JN11" t="n">
-        <v>1967</v>
+        <v>1902</v>
       </c>
       <c r="JO11" t="n">
-        <v>1981</v>
-      </c>
-      <c r="JP11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR11" t="inlineStr">
+        <v>1934</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>1950</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>1951</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>1936</v>
+      </c>
+      <c r="JS11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD11" t="inlineStr">
         <is>
           <t>APCREXBOP</t>
         </is>
       </c>
-      <c r="JS11" t="inlineStr">
+      <c r="KE11" t="inlineStr">
         <is>
           <t>Personal, Cultural and Recreational Services,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT11" t="n">
+      <c r="KF11" t="n">
         <v>190</v>
       </c>
     </row>
@@ -11087,56 +11687,110 @@
         <v>1825</v>
       </c>
       <c r="JF12" t="n">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="JG12" t="n">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="JH12" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="JI12" t="n">
         <v>1947</v>
       </c>
       <c r="JJ12" t="n">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="JK12" t="n">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="JL12" t="n">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="JM12" t="n">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="JN12" t="n">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="JO12" t="n">
-        <v>1904</v>
-      </c>
-      <c r="JP12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JQ12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="JR12" t="inlineStr">
+        <v>1953</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>1980</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>2010</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>2036</v>
+      </c>
+      <c r="JS12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JT12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JU12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JV12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JW12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JX12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JY12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="JZ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KA12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KB12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KC12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="KD12" t="inlineStr">
         <is>
           <t>AGGSEXBOP</t>
         </is>
       </c>
-      <c r="JS12" t="inlineStr">
+      <c r="KE12" t="inlineStr">
         <is>
           <t>Government Goods and Services n.i.e.,  Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT12" t="n">
+      <c r="KF12" t="n">
         <v>191</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/ASRVEXBOP_M_historical.xlsx
@@ -2663,12 +2663,10 @@
         <v>985</v>
       </c>
       <c r="JR2" t="n">
-        <v>1033</v>
-      </c>
-      <c r="JS2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>957</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>1019</v>
       </c>
       <c r="JT2" t="inlineStr">
         <is>
@@ -3569,12 +3567,10 @@
         <v>6511</v>
       </c>
       <c r="JR3" t="n">
-        <v>6021</v>
-      </c>
-      <c r="JS3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>6026</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>5777</v>
       </c>
       <c r="JT3" t="inlineStr">
         <is>
@@ -4475,12 +4471,10 @@
         <v>8604</v>
       </c>
       <c r="JR4" t="n">
-        <v>6849</v>
-      </c>
-      <c r="JS4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>6907</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>8138</v>
       </c>
       <c r="JT4" t="inlineStr">
         <is>
@@ -5383,10 +5377,8 @@
       <c r="JR5" t="n">
         <v>247</v>
       </c>
-      <c r="JS5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS5" t="n">
+        <v>257</v>
       </c>
       <c r="JT5" t="inlineStr">
         <is>
@@ -6289,10 +6281,8 @@
       <c r="JR6" t="n">
         <v>2093</v>
       </c>
-      <c r="JS6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS6" t="n">
+        <v>2108</v>
       </c>
       <c r="JT6" t="inlineStr">
         <is>
@@ -7193,12 +7183,10 @@
         <v>14258</v>
       </c>
       <c r="JR7" t="n">
-        <v>14479</v>
-      </c>
-      <c r="JS7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>14490</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>14559</v>
       </c>
       <c r="JT7" t="inlineStr">
         <is>
@@ -8101,10 +8089,8 @@
       <c r="JR8" t="n">
         <v>10968</v>
       </c>
-      <c r="JS8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS8" t="n">
+        <v>10994</v>
       </c>
       <c r="JT8" t="inlineStr">
         <is>
@@ -9007,10 +8993,8 @@
       <c r="JR9" t="n">
         <v>4616</v>
       </c>
-      <c r="JS9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS9" t="n">
+        <v>4586</v>
       </c>
       <c r="JT9" t="inlineStr">
         <is>
@@ -9913,10 +9897,8 @@
       <c r="JR10" t="n">
         <v>18231</v>
       </c>
-      <c r="JS10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS10" t="n">
+        <v>18434</v>
       </c>
       <c r="JT10" t="inlineStr">
         <is>
@@ -10819,10 +10801,8 @@
       <c r="JR11" t="n">
         <v>1936</v>
       </c>
-      <c r="JS11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS11" t="n">
+        <v>1926</v>
       </c>
       <c r="JT11" t="inlineStr">
         <is>
@@ -11725,10 +11705,8 @@
       <c r="JR12" t="n">
         <v>2036</v>
       </c>
-      <c r="JS12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="JS12" t="n">
+        <v>2055</v>
       </c>
       <c r="JT12" t="inlineStr">
         <is>
